--- a/doc/04_배포/0.5/아이스크림에듀_홈런_마켓_퍼블리싱_v.0.5.xlsx
+++ b/doc/04_배포/0.5/아이스크림에듀_홈런_마켓_퍼블리싱_v.0.5.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="183">
   <si>
     <t xml:space="preserve">  </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -724,6 +724,34 @@
   </si>
   <si>
     <t>2020. 09. 03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 팝업 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;!--
+  제목 :  검색창 팝업 처리
+  작성자 : 이주연
+  날짜 :  2020.09.02
+  내용 :  _searchBox
+      - &lt;a href="#" class="_searchBtn"&gt; _searchBtn 클래스 추가  (열기)
+      - &lt;div class="search-box _searchBox" style="display: block"&gt; _searchBox 클래스 추가 style 제거 후, 사용
+      - &lt;a href="#" class="btn-back _searchCloseBtn"&gt;  _searchCloseBtn 클래스 추가 (닫기)
+  --&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!-- mt-rem-md-4 클래스 추가 -- 2020.09.02 --&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!-- mt-rem-md-4 클래스 추가 -- 2020.09.02 --&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탭 위치 조정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1034,7 +1062,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1143,20 +1171,35 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1179,17 +1222,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1514,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B12:C33"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1568,7 +1602,7 @@
   <dimension ref="A1:BB55"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="F8" sqref="F8:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2102,20 +2136,20 @@
     </row>
     <row r="2" spans="1:54" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
       <c r="N2" s="11"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -2272,26 +2306,26 @@
     </row>
     <row r="5" spans="1:54" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36" t="s">
+      <c r="E5" s="41"/>
+      <c r="F5" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36" t="s">
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="36"/>
+      <c r="M5" s="41"/>
       <c r="N5" s="11"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
@@ -3515,6 +3549,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B2:M2"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:K8"/>
@@ -3527,11 +3566,6 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3548,8 +3582,8 @@
   </sheetPr>
   <dimension ref="A1:AA71"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3562,9 +3596,9 @@
     <col min="6" max="6" width="13.125" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="16"/>
-    <col min="9" max="9" width="8.625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="13.375" style="32" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="69.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="75.625" style="17" customWidth="1"/>
     <col min="12" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
@@ -3594,11 +3628,11 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="15"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
@@ -3629,12 +3663,12 @@
       <c r="H3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="48">
+      <c r="I3" s="43">
         <f>ROUND((COUNTIF(H5:H26,"O")/COUNTA(H5:H26))*100,1)</f>
         <v>100</v>
       </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="50"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="45"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -3702,7 +3736,7 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="47" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="25"/>
@@ -3717,7 +3751,7 @@
       <c r="H5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="27"/>
+      <c r="I5" s="36"/>
       <c r="J5" s="29"/>
       <c r="K5" s="27"/>
       <c r="L5" s="15"/>
@@ -3739,7 +3773,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
-      <c r="B6" s="43"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
       <c r="E6" s="25" t="s">
@@ -3752,7 +3786,7 @@
       <c r="H6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="27"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="29"/>
       <c r="K6" s="35"/>
       <c r="L6" s="15"/>
@@ -3774,7 +3808,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
-      <c r="B7" s="43"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29" t="s">
@@ -3787,7 +3821,7 @@
       <c r="H7" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="27"/>
+      <c r="I7" s="36"/>
       <c r="J7" s="29"/>
       <c r="K7" s="27"/>
       <c r="L7" s="15"/>
@@ -3809,7 +3843,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
-      <c r="B8" s="43"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" s="29" t="s">
@@ -3822,7 +3856,7 @@
       <c r="H8" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="27"/>
+      <c r="I8" s="36"/>
       <c r="J8" s="29"/>
       <c r="K8" s="27"/>
       <c r="L8" s="15"/>
@@ -3842,9 +3876,9 @@
       <c r="Z8" s="18"/>
       <c r="AA8" s="18"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="120" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
-      <c r="B9" s="43"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" s="29" t="s">
@@ -3857,9 +3891,13 @@
       <c r="H9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="27"/>
+      <c r="I9" s="36" t="s">
+        <v>178</v>
+      </c>
       <c r="J9" s="29"/>
-      <c r="K9" s="27"/>
+      <c r="K9" s="35" t="s">
+        <v>179</v>
+      </c>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
       <c r="N9" s="14"/>
@@ -3879,7 +3917,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
-      <c r="B10" s="43"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
       <c r="E10" s="29" t="s">
@@ -3892,7 +3930,9 @@
       <c r="H10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="27"/>
+      <c r="I10" s="36" t="s">
+        <v>178</v>
+      </c>
       <c r="J10" s="29"/>
       <c r="K10" s="27"/>
       <c r="L10" s="15"/>
@@ -3914,7 +3954,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
-      <c r="B11" s="43"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
       <c r="E11" s="29" t="s">
@@ -3927,7 +3967,9 @@
       <c r="H11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="27"/>
+      <c r="I11" s="36" t="s">
+        <v>178</v>
+      </c>
       <c r="J11" s="29"/>
       <c r="K11" s="27"/>
       <c r="L11" s="15"/>
@@ -3949,7 +3991,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
-      <c r="B12" s="43"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
       <c r="E12" s="29" t="s">
@@ -3962,9 +4004,13 @@
       <c r="H12" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="27"/>
+      <c r="I12" s="36" t="s">
+        <v>182</v>
+      </c>
       <c r="J12" s="29"/>
-      <c r="K12" s="27"/>
+      <c r="K12" s="27" t="s">
+        <v>180</v>
+      </c>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
       <c r="N12" s="14"/>
@@ -3984,7 +4030,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
-      <c r="B13" s="43"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
       <c r="E13" s="29" t="s">
@@ -3997,9 +4043,13 @@
       <c r="H13" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="27"/>
+      <c r="I13" s="36" t="s">
+        <v>182</v>
+      </c>
       <c r="J13" s="29"/>
-      <c r="K13" s="27"/>
+      <c r="K13" s="27" t="s">
+        <v>181</v>
+      </c>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
       <c r="N13" s="14"/>
@@ -4019,7 +4069,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
-      <c r="B14" s="44"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
       <c r="E14" s="29" t="s">
@@ -4032,7 +4082,7 @@
       <c r="H14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="27"/>
+      <c r="I14" s="36"/>
       <c r="J14" s="29"/>
       <c r="K14" s="27"/>
       <c r="L14" s="15"/>
@@ -4054,7 +4104,7 @@
     </row>
     <row r="15" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="50" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="25"/>
@@ -4069,7 +4119,7 @@
       <c r="H15" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="27"/>
+      <c r="I15" s="36"/>
       <c r="J15" s="29"/>
       <c r="K15" s="27"/>
       <c r="L15" s="15"/>
@@ -4091,7 +4141,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
-      <c r="B16" s="46"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="25" t="s">
@@ -4104,7 +4154,7 @@
       <c r="H16" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="27"/>
+      <c r="I16" s="36"/>
       <c r="J16" s="29"/>
       <c r="K16" s="27"/>
       <c r="L16" s="15"/>
@@ -4126,7 +4176,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
-      <c r="B17" s="46"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="25" t="s">
@@ -4139,7 +4189,7 @@
       <c r="H17" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="27"/>
+      <c r="I17" s="36"/>
       <c r="J17" s="29"/>
       <c r="K17" s="27"/>
       <c r="L17" s="15"/>
@@ -4161,7 +4211,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
-      <c r="B18" s="46"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="25" t="s">
@@ -4174,7 +4224,7 @@
       <c r="H18" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="27"/>
+      <c r="I18" s="36"/>
       <c r="J18" s="29"/>
       <c r="K18" s="27"/>
       <c r="L18" s="15"/>
@@ -4196,7 +4246,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
-      <c r="B19" s="46"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25" t="s">
@@ -4209,7 +4259,7 @@
       <c r="H19" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="27"/>
+      <c r="I19" s="36"/>
       <c r="J19" s="29"/>
       <c r="K19" s="27"/>
       <c r="L19" s="15"/>
@@ -4231,7 +4281,7 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
-      <c r="B20" s="46"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25" t="s">
@@ -4244,7 +4294,7 @@
       <c r="H20" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="27"/>
+      <c r="I20" s="36"/>
       <c r="J20" s="29"/>
       <c r="K20" s="27"/>
       <c r="L20" s="15"/>
@@ -4266,7 +4316,7 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
-      <c r="B21" s="46"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
       <c r="E21" s="25" t="s">
@@ -4279,7 +4329,7 @@
       <c r="H21" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="27"/>
+      <c r="I21" s="36"/>
       <c r="J21" s="29"/>
       <c r="K21" s="27"/>
       <c r="L21" s="15"/>
@@ -4301,7 +4351,7 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
-      <c r="B22" s="46"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25" t="s">
@@ -4314,7 +4364,7 @@
       <c r="H22" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="27"/>
+      <c r="I22" s="36"/>
       <c r="J22" s="29"/>
       <c r="K22" s="27"/>
       <c r="L22" s="15"/>
@@ -4336,7 +4386,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
-      <c r="B23" s="46"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="25" t="s">
@@ -4349,7 +4399,7 @@
       <c r="H23" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="27"/>
+      <c r="I23" s="36"/>
       <c r="J23" s="29"/>
       <c r="K23" s="27"/>
       <c r="L23" s="15"/>
@@ -4371,7 +4421,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
-      <c r="B24" s="46"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="25" t="s">
@@ -4384,7 +4434,7 @@
       <c r="H24" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="27"/>
+      <c r="I24" s="36"/>
       <c r="J24" s="29"/>
       <c r="K24" s="27"/>
       <c r="L24" s="15"/>
@@ -4406,7 +4456,7 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
-      <c r="B25" s="46"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
       <c r="E25" s="25" t="s">
@@ -4419,7 +4469,7 @@
       <c r="H25" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="27"/>
+      <c r="I25" s="36"/>
       <c r="J25" s="29"/>
       <c r="K25" s="27"/>
       <c r="L25" s="15"/>
@@ -4441,7 +4491,7 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
-      <c r="B26" s="47"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
       <c r="E26" s="25" t="s">
@@ -4454,7 +4504,7 @@
       <c r="H26" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="27"/>
+      <c r="I26" s="36"/>
       <c r="J26" s="29"/>
       <c r="K26" s="27"/>
       <c r="L26" s="15"/>
@@ -4475,7 +4525,7 @@
       <c r="AA26" s="18"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="47" t="s">
         <v>52</v>
       </c>
       <c r="C27" s="25"/>
@@ -4490,12 +4540,12 @@
       <c r="H27" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="27"/>
+      <c r="I27" s="36"/>
       <c r="J27" s="29"/>
       <c r="K27" s="27"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B28" s="43"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="25" t="s">
@@ -4508,12 +4558,12 @@
       <c r="H28" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="27"/>
+      <c r="I28" s="36"/>
       <c r="J28" s="29"/>
       <c r="K28" s="27"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B29" s="43"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
       <c r="E29" s="25" t="s">
@@ -4526,12 +4576,12 @@
       <c r="H29" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="27"/>
+      <c r="I29" s="36"/>
       <c r="J29" s="29"/>
       <c r="K29" s="27"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B30" s="43"/>
+      <c r="B30" s="48"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
       <c r="E30" s="25" t="s">
@@ -4544,12 +4594,12 @@
       <c r="H30" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="27"/>
+      <c r="I30" s="36"/>
       <c r="J30" s="29"/>
       <c r="K30" s="27"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B31" s="44"/>
+      <c r="B31" s="49"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
       <c r="E31" s="25" t="s">
@@ -4562,12 +4612,12 @@
       <c r="H31" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I31" s="27"/>
+      <c r="I31" s="36"/>
       <c r="J31" s="29"/>
       <c r="K31" s="27"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="47" t="s">
         <v>62</v>
       </c>
       <c r="C32" s="25"/>
@@ -4582,12 +4632,12 @@
       <c r="H32" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="27"/>
+      <c r="I32" s="36"/>
       <c r="J32" s="29"/>
       <c r="K32" s="27"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="43"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
       <c r="E33" s="25" t="s">
@@ -4600,14 +4650,14 @@
       <c r="H33" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="27"/>
+      <c r="I33" s="36"/>
       <c r="J33" s="29"/>
       <c r="K33" s="27" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="43"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
       <c r="E34" s="25" t="s">
@@ -4620,12 +4670,12 @@
       <c r="H34" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="27"/>
+      <c r="I34" s="36"/>
       <c r="J34" s="29"/>
       <c r="K34" s="27"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="43"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
       <c r="E35" s="25" t="s">
@@ -4638,12 +4688,12 @@
       <c r="H35" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I35" s="27"/>
+      <c r="I35" s="36"/>
       <c r="J35" s="29"/>
       <c r="K35" s="27"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="43"/>
+      <c r="B36" s="48"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
       <c r="E36" s="25" t="s">
@@ -4656,12 +4706,12 @@
       <c r="H36" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I36" s="27"/>
+      <c r="I36" s="36"/>
       <c r="J36" s="29"/>
       <c r="K36" s="27"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="43"/>
+      <c r="B37" s="48"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
       <c r="E37" s="25" t="s">
@@ -4674,12 +4724,12 @@
       <c r="H37" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I37" s="27"/>
+      <c r="I37" s="36"/>
       <c r="J37" s="29"/>
       <c r="K37" s="27"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="43"/>
+      <c r="B38" s="48"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
       <c r="E38" s="25" t="s">
@@ -4692,12 +4742,12 @@
       <c r="H38" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I38" s="27"/>
+      <c r="I38" s="36"/>
       <c r="J38" s="29"/>
       <c r="K38" s="27"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="43"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
       <c r="E39" s="25" t="s">
@@ -4710,12 +4760,12 @@
       <c r="H39" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I39" s="27"/>
+      <c r="I39" s="36"/>
       <c r="J39" s="29"/>
       <c r="K39" s="27"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="44"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
       <c r="E40" s="25" t="s">
@@ -4728,12 +4778,12 @@
       <c r="H40" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I40" s="27"/>
+      <c r="I40" s="36"/>
       <c r="J40" s="29"/>
       <c r="K40" s="27"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="46" t="s">
         <v>83</v>
       </c>
       <c r="C41" s="33"/>
@@ -4748,12 +4798,12 @@
       <c r="H41" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I41" s="27"/>
+      <c r="I41" s="36"/>
       <c r="J41" s="29"/>
       <c r="K41" s="27"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="41"/>
+      <c r="B42" s="46"/>
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="29" t="s">
@@ -4766,12 +4816,12 @@
       <c r="H42" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I42" s="27"/>
+      <c r="I42" s="36"/>
       <c r="J42" s="29"/>
       <c r="K42" s="27"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="41"/>
+      <c r="B43" s="46"/>
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="29" t="s">
@@ -4784,12 +4834,12 @@
       <c r="H43" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I43" s="27"/>
+      <c r="I43" s="36"/>
       <c r="J43" s="29"/>
       <c r="K43" s="27"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="41"/>
+      <c r="B44" s="46"/>
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="29" t="s">
@@ -4802,12 +4852,12 @@
       <c r="H44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I44" s="27"/>
+      <c r="I44" s="36"/>
       <c r="J44" s="29"/>
       <c r="K44" s="27"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="47" t="s">
         <v>122</v>
       </c>
       <c r="C45" s="33"/>
@@ -4822,14 +4872,14 @@
       <c r="H45" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I45" s="27"/>
+      <c r="I45" s="36"/>
       <c r="J45" s="31" t="s">
         <v>137</v>
       </c>
       <c r="K45" s="27"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="43"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="31" t="s">
@@ -4842,14 +4892,14 @@
       <c r="H46" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I46" s="27"/>
+      <c r="I46" s="36"/>
       <c r="J46" s="31" t="s">
         <v>137</v>
       </c>
       <c r="K46" s="27"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="43"/>
+      <c r="B47" s="48"/>
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="31" t="s">
@@ -4862,14 +4912,14 @@
       <c r="H47" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I47" s="27"/>
+      <c r="I47" s="36"/>
       <c r="J47" s="31" t="s">
         <v>137</v>
       </c>
       <c r="K47" s="27"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="43"/>
+      <c r="B48" s="48"/>
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="31" t="s">
@@ -4882,14 +4932,14 @@
       <c r="H48" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I48" s="27"/>
+      <c r="I48" s="36"/>
       <c r="J48" s="31" t="s">
         <v>137</v>
       </c>
       <c r="K48" s="27"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="43"/>
+      <c r="B49" s="48"/>
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="31" t="s">
@@ -4902,14 +4952,14 @@
       <c r="H49" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I49" s="27"/>
+      <c r="I49" s="36"/>
       <c r="J49" s="31" t="s">
         <v>137</v>
       </c>
       <c r="K49" s="27"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="43"/>
+      <c r="B50" s="48"/>
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="31" t="s">
@@ -4922,14 +4972,14 @@
       <c r="H50" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I50" s="27"/>
+      <c r="I50" s="36"/>
       <c r="J50" s="31" t="s">
         <v>137</v>
       </c>
       <c r="K50" s="27"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="44"/>
+      <c r="B51" s="49"/>
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="31" t="s">
@@ -4942,14 +4992,14 @@
       <c r="H51" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I51" s="27"/>
+      <c r="I51" s="36"/>
       <c r="J51" s="31" t="s">
         <v>137</v>
       </c>
       <c r="K51" s="27"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="47" t="s">
         <v>84</v>
       </c>
       <c r="C52" s="33"/>
@@ -4964,12 +5014,12 @@
       <c r="H52" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I52" s="27"/>
+      <c r="I52" s="36"/>
       <c r="J52" s="29"/>
       <c r="K52" s="27"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="43"/>
+      <c r="B53" s="48"/>
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="29" t="s">
@@ -4982,12 +5032,12 @@
       <c r="H53" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I53" s="27"/>
+      <c r="I53" s="36"/>
       <c r="J53" s="29"/>
       <c r="K53" s="27"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="43"/>
+      <c r="B54" s="48"/>
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="29" t="s">
@@ -5000,12 +5050,12 @@
       <c r="H54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I54" s="27"/>
+      <c r="I54" s="36"/>
       <c r="J54" s="29"/>
       <c r="K54" s="27"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="44"/>
+      <c r="B55" s="49"/>
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="29" t="s">
@@ -5018,12 +5068,12 @@
       <c r="H55" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I55" s="27"/>
+      <c r="I55" s="36"/>
       <c r="J55" s="29"/>
       <c r="K55" s="27"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="41" t="s">
+      <c r="B56" s="46" t="s">
         <v>138</v>
       </c>
       <c r="C56" s="33"/>
@@ -5038,14 +5088,14 @@
       <c r="H56" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I56" s="33"/>
+      <c r="I56" s="53"/>
       <c r="J56" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="K56" s="51"/>
+      <c r="K56" s="37"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="41"/>
+      <c r="B57" s="46"/>
       <c r="C57" s="33"/>
       <c r="D57" s="33"/>
       <c r="E57" s="31" t="s">
@@ -5058,14 +5108,14 @@
       <c r="H57" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I57" s="33"/>
+      <c r="I57" s="53"/>
       <c r="J57" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="K57" s="51"/>
+      <c r="K57" s="37"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="41"/>
+      <c r="B58" s="46"/>
       <c r="C58" s="33"/>
       <c r="D58" s="33"/>
       <c r="E58" s="31" t="s">
@@ -5078,14 +5128,14 @@
       <c r="H58" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I58" s="33"/>
+      <c r="I58" s="53"/>
       <c r="J58" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="K58" s="51"/>
+      <c r="K58" s="37"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="41"/>
+      <c r="B59" s="46"/>
       <c r="C59" s="33"/>
       <c r="D59" s="33"/>
       <c r="E59" s="31" t="s">
@@ -5098,14 +5148,14 @@
       <c r="H59" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I59" s="33"/>
+      <c r="I59" s="53"/>
       <c r="J59" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="K59" s="51"/>
+      <c r="K59" s="37"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="41"/>
+      <c r="B60" s="46"/>
       <c r="C60" s="33"/>
       <c r="D60" s="33"/>
       <c r="E60" s="31" t="s">
@@ -5118,14 +5168,14 @@
       <c r="H60" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I60" s="33"/>
+      <c r="I60" s="53"/>
       <c r="J60" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="K60" s="51"/>
+      <c r="K60" s="37"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="41"/>
+      <c r="B61" s="46"/>
       <c r="C61" s="33"/>
       <c r="D61" s="33"/>
       <c r="E61" s="31" t="s">
@@ -5138,14 +5188,14 @@
       <c r="H61" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I61" s="33"/>
+      <c r="I61" s="53"/>
       <c r="J61" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="K61" s="51"/>
+      <c r="K61" s="37"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="41"/>
+      <c r="B62" s="46"/>
       <c r="C62" s="33"/>
       <c r="D62" s="33"/>
       <c r="E62" s="31" t="s">
@@ -5158,14 +5208,14 @@
       <c r="H62" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I62" s="33"/>
+      <c r="I62" s="53"/>
       <c r="J62" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="K62" s="51"/>
+      <c r="K62" s="37"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="41"/>
+      <c r="B63" s="46"/>
       <c r="C63" s="33"/>
       <c r="D63" s="33"/>
       <c r="E63" s="31" t="s">
@@ -5178,14 +5228,14 @@
       <c r="H63" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I63" s="33"/>
+      <c r="I63" s="53"/>
       <c r="J63" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="K63" s="51"/>
+      <c r="K63" s="37"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="41"/>
+      <c r="B64" s="46"/>
       <c r="C64" s="33"/>
       <c r="D64" s="33"/>
       <c r="E64" s="31" t="s">
@@ -5198,14 +5248,14 @@
       <c r="H64" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I64" s="33"/>
+      <c r="I64" s="53"/>
       <c r="J64" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="K64" s="51"/>
+      <c r="K64" s="37"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="41"/>
+      <c r="B65" s="46"/>
       <c r="C65" s="33"/>
       <c r="D65" s="33"/>
       <c r="E65" s="31" t="s">
@@ -5218,14 +5268,14 @@
       <c r="H65" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I65" s="33"/>
+      <c r="I65" s="53"/>
       <c r="J65" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="K65" s="51"/>
+      <c r="K65" s="37"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B66" s="41"/>
+      <c r="B66" s="46"/>
       <c r="C66" s="33"/>
       <c r="D66" s="33"/>
       <c r="E66" s="31" t="s">
@@ -5238,14 +5288,14 @@
       <c r="H66" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I66" s="33"/>
+      <c r="I66" s="53"/>
       <c r="J66" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="K66" s="51"/>
+      <c r="K66" s="37"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B67" s="41"/>
+      <c r="B67" s="46"/>
       <c r="C67" s="33"/>
       <c r="D67" s="33"/>
       <c r="E67" s="31" t="s">
@@ -5258,14 +5308,14 @@
       <c r="H67" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I67" s="33"/>
+      <c r="I67" s="53"/>
       <c r="J67" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="K67" s="51"/>
+      <c r="K67" s="37"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B68" s="41"/>
+      <c r="B68" s="46"/>
       <c r="C68" s="33"/>
       <c r="D68" s="33"/>
       <c r="E68" s="31" t="s">
@@ -5278,14 +5328,14 @@
       <c r="H68" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I68" s="33"/>
+      <c r="I68" s="53"/>
       <c r="J68" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="K68" s="51"/>
+      <c r="K68" s="37"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B69" s="41"/>
+      <c r="B69" s="46"/>
       <c r="C69" s="33"/>
       <c r="D69" s="33"/>
       <c r="E69" s="31" t="s">
@@ -5298,14 +5348,14 @@
       <c r="H69" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I69" s="33"/>
+      <c r="I69" s="53"/>
       <c r="J69" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="K69" s="51"/>
+      <c r="K69" s="37"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B70" s="41"/>
+      <c r="B70" s="46"/>
       <c r="C70" s="33"/>
       <c r="D70" s="33"/>
       <c r="E70" s="31" t="s">
@@ -5318,14 +5368,14 @@
       <c r="H70" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I70" s="33"/>
+      <c r="I70" s="53"/>
       <c r="J70" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="K70" s="51"/>
+      <c r="K70" s="37"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B71" s="41"/>
+      <c r="B71" s="46"/>
       <c r="C71" s="33"/>
       <c r="D71" s="33"/>
       <c r="E71" s="31" t="s">
@@ -5338,11 +5388,11 @@
       <c r="H71" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I71" s="33"/>
+      <c r="I71" s="53"/>
       <c r="J71" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="K71" s="51"/>
+      <c r="K71" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5359,6 +5409,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="30" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="29" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/04_배포/0.5/아이스크림에듀_홈런_마켓_퍼블리싱_v.0.5.xlsx
+++ b/doc/04_배포/0.5/아이스크림에듀_홈런_마켓_퍼블리싱_v.0.5.xlsx
@@ -17,7 +17,7 @@
     <sheet name="HOMERUN" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">HOMERUN!$A$1:$AA$74</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">HOMERUN!$A$1:$AA$75</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Revision History'!$A$1:$N$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">표지!$A$1:$H$43</definedName>
   </definedNames>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="186">
   <si>
     <t xml:space="preserve">  </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -728,12 +728,23 @@
   </si>
   <si>
     <t>페이지 팝업 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!-- mt-rem-md-4 클래스 추가 -- 2020.09.02 --&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!-- mt-rem-md-4 클래스 추가 -- 2020.09.02 --&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탭 위치 조정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  &lt;!--
   제목 :  검색창 팝업 처리
-  작성자 : 이주연
   날짜 :  2020.09.02
   내용 :  _searchBox
       - &lt;a href="#" class="_searchBtn"&gt; _searchBtn 클래스 추가  (열기)
@@ -743,15 +754,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;!-- mt-rem-md-4 클래스 추가 -- 2020.09.02 --&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;!-- mt-rem-md-4 클래스 추가 -- 2020.09.02 --&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탭 위치 조정</t>
+    <t>학습소개(학습관)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_main_08_app detail_01_학습소개_학습관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3580,10 +3591,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA71"/>
+  <dimension ref="A1:AA72"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3876,7 +3887,7 @@
       <c r="Z8" s="18"/>
       <c r="AA8" s="18"/>
     </row>
-    <row r="9" spans="1:27" ht="120" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="96" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="48"/>
       <c r="C9" s="29"/>
@@ -3896,7 +3907,7 @@
       </c>
       <c r="J9" s="29"/>
       <c r="K9" s="35" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
@@ -4005,11 +4016,11 @@
         <v>18</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J12" s="29"/>
       <c r="K12" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
@@ -4044,11 +4055,11 @@
         <v>18</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J13" s="29"/>
       <c r="K13" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
@@ -4730,20 +4741,22 @@
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38" s="48"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="F38" s="25"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="F38" s="36"/>
       <c r="G38" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="H38" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="H38" s="36" t="s">
         <v>18</v>
       </c>
       <c r="I38" s="36"/>
-      <c r="J38" s="29"/>
+      <c r="J38" s="36" t="s">
+        <v>185</v>
+      </c>
       <c r="K38" s="27"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
@@ -4751,11 +4764,11 @@
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
       <c r="E39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F39" s="25"/>
       <c r="G39" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H39" s="25" t="s">
         <v>18</v>
@@ -4765,15 +4778,15 @@
       <c r="K39" s="27"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="49"/>
+      <c r="B40" s="48"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
       <c r="E40" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F40" s="25"/>
       <c r="G40" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H40" s="25" t="s">
         <v>18</v>
@@ -4783,19 +4796,17 @@
       <c r="K40" s="27"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="F41" s="33"/>
-      <c r="G41" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="H41" s="29" t="s">
+      <c r="B41" s="49"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" s="25"/>
+      <c r="G41" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H41" s="25" t="s">
         <v>18</v>
       </c>
       <c r="I41" s="36"/>
@@ -4803,11 +4814,13 @@
       <c r="K41" s="27"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="46"/>
+      <c r="B42" s="46" t="s">
+        <v>83</v>
+      </c>
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F42" s="33"/>
       <c r="G42" s="34" t="s">
@@ -4825,11 +4838,11 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F43" s="33"/>
       <c r="G43" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H43" s="29" t="s">
         <v>18</v>
@@ -4843,11 +4856,11 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F44" s="33"/>
       <c r="G44" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H44" s="29" t="s">
         <v>18</v>
@@ -4857,37 +4870,35 @@
       <c r="K44" s="27"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="47" t="s">
-        <v>122</v>
-      </c>
+      <c r="B45" s="46"/>
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
-      <c r="E45" s="31" t="s">
-        <v>123</v>
+      <c r="E45" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="F45" s="33"/>
       <c r="G45" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="H45" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="H45" s="29" t="s">
         <v>18</v>
       </c>
       <c r="I45" s="36"/>
-      <c r="J45" s="31" t="s">
-        <v>137</v>
-      </c>
+      <c r="J45" s="29"/>
       <c r="K45" s="27"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="48"/>
+      <c r="B46" s="47" t="s">
+        <v>122</v>
+      </c>
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F46" s="33"/>
       <c r="G46" s="34" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H46" s="31" t="s">
         <v>18</v>
@@ -4903,11 +4914,11 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F47" s="33"/>
       <c r="G47" s="34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H47" s="31" t="s">
         <v>18</v>
@@ -4923,11 +4934,11 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="31" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F48" s="33"/>
       <c r="G48" s="34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H48" s="31" t="s">
         <v>18</v>
@@ -4943,11 +4954,11 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F49" s="33"/>
       <c r="G49" s="34" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H49" s="31" t="s">
         <v>18</v>
@@ -4963,11 +4974,11 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="31" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F50" s="33"/>
       <c r="G50" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H50" s="31" t="s">
         <v>18</v>
@@ -4979,15 +4990,15 @@
       <c r="K50" s="27"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="49"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F51" s="33"/>
       <c r="G51" s="34" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H51" s="31" t="s">
         <v>18</v>
@@ -4999,35 +5010,37 @@
       <c r="K51" s="27"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="47" t="s">
-        <v>84</v>
-      </c>
+      <c r="B52" s="49"/>
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
-      <c r="E52" s="29" t="s">
-        <v>94</v>
+      <c r="E52" s="31" t="s">
+        <v>135</v>
       </c>
       <c r="F52" s="33"/>
       <c r="G52" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="H52" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="H52" s="31" t="s">
         <v>18</v>
       </c>
       <c r="I52" s="36"/>
-      <c r="J52" s="29"/>
+      <c r="J52" s="31" t="s">
+        <v>137</v>
+      </c>
       <c r="K52" s="27"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="48"/>
+      <c r="B53" s="47" t="s">
+        <v>84</v>
+      </c>
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F53" s="33"/>
       <c r="G53" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H53" s="29" t="s">
         <v>18</v>
@@ -5041,11 +5054,11 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F54" s="33"/>
       <c r="G54" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H54" s="29" t="s">
         <v>18</v>
@@ -5055,15 +5068,15 @@
       <c r="K54" s="27"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="49"/>
+      <c r="B55" s="48"/>
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F55" s="33"/>
       <c r="G55" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H55" s="29" t="s">
         <v>18</v>
@@ -5073,37 +5086,35 @@
       <c r="K55" s="27"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="46" t="s">
-        <v>138</v>
-      </c>
+      <c r="B56" s="49"/>
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
-      <c r="E56" s="31" t="s">
-        <v>139</v>
+      <c r="E56" s="29" t="s">
+        <v>97</v>
       </c>
       <c r="F56" s="33"/>
       <c r="G56" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="H56" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I56" s="53"/>
-      <c r="J56" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="K56" s="37"/>
+        <v>107</v>
+      </c>
+      <c r="H56" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="36"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="27"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="46"/>
+      <c r="B57" s="46" t="s">
+        <v>138</v>
+      </c>
       <c r="C57" s="33"/>
       <c r="D57" s="33"/>
       <c r="E57" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F57" s="33"/>
       <c r="G57" s="34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H57" s="31" t="s">
         <v>18</v>
@@ -5119,11 +5130,11 @@
       <c r="C58" s="33"/>
       <c r="D58" s="33"/>
       <c r="E58" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F58" s="33"/>
       <c r="G58" s="34" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H58" s="31" t="s">
         <v>18</v>
@@ -5139,11 +5150,11 @@
       <c r="C59" s="33"/>
       <c r="D59" s="33"/>
       <c r="E59" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F59" s="33"/>
       <c r="G59" s="34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H59" s="31" t="s">
         <v>18</v>
@@ -5159,11 +5170,11 @@
       <c r="C60" s="33"/>
       <c r="D60" s="33"/>
       <c r="E60" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F60" s="33"/>
       <c r="G60" s="34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H60" s="31" t="s">
         <v>18</v>
@@ -5179,11 +5190,11 @@
       <c r="C61" s="33"/>
       <c r="D61" s="33"/>
       <c r="E61" s="31" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="F61" s="33"/>
       <c r="G61" s="34" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H61" s="31" t="s">
         <v>18</v>
@@ -5199,11 +5210,11 @@
       <c r="C62" s="33"/>
       <c r="D62" s="33"/>
       <c r="E62" s="31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F62" s="33"/>
       <c r="G62" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H62" s="31" t="s">
         <v>18</v>
@@ -5219,11 +5230,11 @@
       <c r="C63" s="33"/>
       <c r="D63" s="33"/>
       <c r="E63" s="31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F63" s="33"/>
       <c r="G63" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H63" s="31" t="s">
         <v>18</v>
@@ -5239,11 +5250,11 @@
       <c r="C64" s="33"/>
       <c r="D64" s="33"/>
       <c r="E64" s="31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F64" s="33"/>
       <c r="G64" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H64" s="31" t="s">
         <v>18</v>
@@ -5259,11 +5270,11 @@
       <c r="C65" s="33"/>
       <c r="D65" s="33"/>
       <c r="E65" s="31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F65" s="33"/>
       <c r="G65" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H65" s="31" t="s">
         <v>18</v>
@@ -5279,11 +5290,11 @@
       <c r="C66" s="33"/>
       <c r="D66" s="33"/>
       <c r="E66" s="31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F66" s="33"/>
       <c r="G66" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H66" s="31" t="s">
         <v>18</v>
@@ -5299,11 +5310,11 @@
       <c r="C67" s="33"/>
       <c r="D67" s="33"/>
       <c r="E67" s="31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F67" s="33"/>
       <c r="G67" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H67" s="31" t="s">
         <v>18</v>
@@ -5319,11 +5330,11 @@
       <c r="C68" s="33"/>
       <c r="D68" s="33"/>
       <c r="E68" s="31" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F68" s="33"/>
       <c r="G68" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H68" s="31" t="s">
         <v>18</v>
@@ -5339,11 +5350,11 @@
       <c r="C69" s="33"/>
       <c r="D69" s="33"/>
       <c r="E69" s="31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F69" s="33"/>
       <c r="G69" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H69" s="31" t="s">
         <v>18</v>
@@ -5359,11 +5370,11 @@
       <c r="C70" s="33"/>
       <c r="D70" s="33"/>
       <c r="E70" s="31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F70" s="33"/>
       <c r="G70" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H70" s="31" t="s">
         <v>18</v>
@@ -5379,11 +5390,11 @@
       <c r="C71" s="33"/>
       <c r="D71" s="33"/>
       <c r="E71" s="31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F71" s="33"/>
       <c r="G71" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H71" s="31" t="s">
         <v>18</v>
@@ -5393,18 +5404,38 @@
         <v>137</v>
       </c>
       <c r="K71" s="37"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B72" s="46"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="F72" s="33"/>
+      <c r="G72" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="H72" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72" s="53"/>
+      <c r="J72" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="K72" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B45:B51"/>
-    <mergeCell ref="B56:B71"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="B57:B72"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B53:B56"/>
     <mergeCell ref="B5:B14"/>
-    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="B32:B41"/>
     <mergeCell ref="B15:B26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
